--- a/OurDataCorrected.xlsx
+++ b/OurDataCorrected.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayomide\Google Drive\Data Mining\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayomide\Google Drive\Data Mining\Group Project\Ayomide's Branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="630">
   <si>
     <t>shapeid</t>
   </si>
@@ -1734,9 +1736,6 @@
     <t>PNC</t>
   </si>
   <si>
-    <t>Religion</t>
-  </si>
-  <si>
     <t>Islam</t>
   </si>
   <si>
@@ -1906,6 +1905,18 @@
   </si>
   <si>
     <t>Long</t>
+  </si>
+  <si>
+    <t>christian</t>
+  </si>
+  <si>
+    <t>Traditionalist</t>
+  </si>
+  <si>
+    <t>Dominant Religion</t>
+  </si>
+  <si>
+    <t>MP Religions</t>
   </si>
 </sst>
 </file>
@@ -2450,6 +2461,106 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet5"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Column Labels</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Christian</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Eckankar</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Islam</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Unkn</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Count of MP's Religion</v>
+          </cell>
+          <cell r="B5">
+            <v>0.85090909090909095</v>
+          </cell>
+          <cell r="C5">
+            <v>3.6363636363636364E-3</v>
+          </cell>
+          <cell r="D5">
+            <v>0.14181818181818182</v>
+          </cell>
+          <cell r="E5">
+            <v>3.6363636363636364E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Count of MP's Religion</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Christian</v>
+          </cell>
+          <cell r="B4">
+            <v>234</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Eckankar</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Islam</v>
+          </cell>
+          <cell r="B6">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Unkn</v>
+          </cell>
+          <cell r="B7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Grand Total</v>
+          </cell>
+          <cell r="B8">
+            <v>275</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2713,24 +2824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I276"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E254" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I276"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,10 +2835,12 @@
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2758,19 +2857,22 @@
         <v>563</v>
       </c>
       <c r="F1" t="s">
-        <v>569</v>
+        <v>629</v>
       </c>
       <c r="G1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2787,7 +2889,7 @@
         <v>564</v>
       </c>
       <c r="F2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2" s="1">
         <v>6.1845818369999996</v>
@@ -2795,8 +2897,11 @@
       <c r="I2" s="1">
         <v>-1.4351815969999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2813,10 +2918,10 @@
         <v>564</v>
       </c>
       <c r="F3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H3" s="1">
         <v>6.9891008709999998</v>
@@ -2824,8 +2929,11 @@
       <c r="I3" s="1">
         <v>-1.6113053939999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2842,10 +2950,10 @@
         <v>564</v>
       </c>
       <c r="F4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H4" s="1">
         <v>6.8080385359999998</v>
@@ -2853,8 +2961,11 @@
       <c r="I4" s="1">
         <v>-1.591580013</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2871,10 +2982,10 @@
         <v>564</v>
       </c>
       <c r="F5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H5" s="1">
         <v>6.9838884009999997</v>
@@ -2882,8 +2993,11 @@
       <c r="I5" s="1">
         <v>-1.5067777309999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2900,10 +3014,10 @@
         <v>565</v>
       </c>
       <c r="F6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H6" s="1">
         <v>6.9121210160000004</v>
@@ -2911,8 +3025,11 @@
       <c r="I6" s="1">
         <v>-2.2016399780000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2929,10 +3046,10 @@
         <v>564</v>
       </c>
       <c r="F7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H7" s="1">
         <v>6.9439559649999998</v>
@@ -2940,8 +3057,11 @@
       <c r="I7" s="1">
         <v>-1.8819386389999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2958,10 +3078,10 @@
         <v>564</v>
       </c>
       <c r="F8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H8" s="1">
         <v>6.8904990039999996</v>
@@ -2969,8 +3089,11 @@
       <c r="I8" s="1">
         <v>-2.036892801</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2987,10 +3110,10 @@
         <v>564</v>
       </c>
       <c r="F9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H9" s="1">
         <v>6.1130144839999998</v>
@@ -2998,8 +3121,11 @@
       <c r="I9" s="1">
         <v>-1.614606601</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3016,10 +3142,10 @@
         <v>564</v>
       </c>
       <c r="F10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H10" s="1">
         <v>6.6266162059999996</v>
@@ -3027,8 +3153,11 @@
       <c r="I10" s="1">
         <v>-1.207860103</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3045,10 +3174,10 @@
         <v>564</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H11" s="1">
         <v>6.8464730610000002</v>
@@ -3056,8 +3185,11 @@
       <c r="I11" s="1">
         <v>-0.97731699699999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3074,10 +3206,10 @@
         <v>564</v>
       </c>
       <c r="F12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H12" s="1">
         <v>6.4901521520000003</v>
@@ -3085,8 +3217,11 @@
       <c r="I12" s="1">
         <v>-1.104718418</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3103,7 +3238,7 @@
         <v>565</v>
       </c>
       <c r="F13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H13" s="1">
         <v>6.682698577</v>
@@ -3111,8 +3246,11 @@
       <c r="I13" s="1">
         <v>-1.5893272389999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3129,10 +3267,10 @@
         <v>564</v>
       </c>
       <c r="F14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H14" s="1">
         <v>6.6402222799999997</v>
@@ -3140,8 +3278,11 @@
       <c r="I14" s="1">
         <v>-1.583681838</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3158,10 +3299,10 @@
         <v>564</v>
       </c>
       <c r="F15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H15" s="1">
         <v>6.5920251849999998</v>
@@ -3169,8 +3310,11 @@
       <c r="I15" s="1">
         <v>-1.70056659</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3187,10 +3331,10 @@
         <v>564</v>
       </c>
       <c r="F16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H16" s="1">
         <v>6.5691524289999998</v>
@@ -3198,8 +3342,11 @@
       <c r="I16" s="1">
         <v>-2.1664417880000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3216,10 +3363,10 @@
         <v>564</v>
       </c>
       <c r="F17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H17" s="1">
         <v>6.8720561880000002</v>
@@ -3227,8 +3374,11 @@
       <c r="I17" s="1">
         <v>-1.7582448390000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3245,10 +3395,10 @@
         <v>564</v>
       </c>
       <c r="F18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H18" s="1">
         <v>6.6885096170000002</v>
@@ -3256,8 +3406,11 @@
       <c r="I18" s="1">
         <v>-1.821644729</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3274,10 +3427,10 @@
         <v>564</v>
       </c>
       <c r="F19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H19" s="1">
         <v>6.7330928180000003</v>
@@ -3285,8 +3438,11 @@
       <c r="I19" s="1">
         <v>-1.6415290499999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3303,10 +3459,10 @@
         <v>564</v>
       </c>
       <c r="F20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H20" s="1">
         <v>6.4173577530000001</v>
@@ -3314,8 +3470,11 @@
       <c r="I20" s="1">
         <v>-1.6072297170000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3332,10 +3491,10 @@
         <v>564</v>
       </c>
       <c r="F21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H21" s="1">
         <v>6.345706431</v>
@@ -3343,8 +3502,11 @@
       <c r="I21" s="1">
         <v>-1.3550163820000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3361,10 +3523,10 @@
         <v>564</v>
       </c>
       <c r="F22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H22" s="1">
         <v>6.5522445380000001</v>
@@ -3372,8 +3534,11 @@
       <c r="I22" s="1">
         <v>-1.4622757799999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3390,10 +3555,10 @@
         <v>564</v>
       </c>
       <c r="F23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H23" s="1">
         <v>6.7934740900000001</v>
@@ -3401,8 +3566,11 @@
       <c r="I23" s="1">
         <v>-1.2979330499999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3419,10 +3587,10 @@
         <v>564</v>
       </c>
       <c r="F24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H24" s="1">
         <v>6.5762052669999997</v>
@@ -3430,8 +3598,11 @@
       <c r="I24" s="1">
         <v>-1.330997969</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3448,7 +3619,7 @@
         <v>564</v>
       </c>
       <c r="F25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H25" s="1">
         <v>7.3816560139999998</v>
@@ -3456,8 +3627,11 @@
       <c r="I25" s="1">
         <v>-1.4284679060000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3474,7 +3648,7 @@
         <v>564</v>
       </c>
       <c r="F26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H26" s="1">
         <v>6.2861626629999998</v>
@@ -3482,8 +3656,11 @@
       <c r="I26" s="1">
         <v>-1.5512973459999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3500,10 +3677,10 @@
         <v>564</v>
       </c>
       <c r="F27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H27" s="1">
         <v>6.714796518</v>
@@ -3511,8 +3688,11 @@
       <c r="I27" s="1">
         <v>-1.394989467</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3529,10 +3709,10 @@
         <v>564</v>
       </c>
       <c r="F28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H28" s="1">
         <v>7.06598726</v>
@@ -3540,8 +3720,11 @@
       <c r="I28" s="1">
         <v>-0.95536564499999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3558,10 +3741,10 @@
         <v>564</v>
       </c>
       <c r="F29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H29" s="1">
         <v>6.8050266649999998</v>
@@ -3569,8 +3752,11 @@
       <c r="I29" s="1">
         <v>-1.492189642</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3587,10 +3773,10 @@
         <v>564</v>
       </c>
       <c r="F30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H30" s="1">
         <v>6.7336146369999996</v>
@@ -3598,8 +3784,11 @@
       <c r="I30" s="1">
         <v>-1.6819744860000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3616,10 +3805,10 @@
         <v>564</v>
       </c>
       <c r="F31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H31" s="1">
         <v>7.1400452400000001</v>
@@ -3627,8 +3816,11 @@
       <c r="I31" s="1">
         <v>-1.3911232529999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3645,10 +3837,10 @@
         <v>564</v>
       </c>
       <c r="F32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H32" s="1">
         <v>6.7349361710000002</v>
@@ -3656,8 +3848,11 @@
       <c r="I32" s="1">
         <v>-1.5355065210000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3674,10 +3869,10 @@
         <v>564</v>
       </c>
       <c r="F33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H33" s="1">
         <v>6.7076597830000004</v>
@@ -3685,8 +3880,11 @@
       <c r="I33" s="1">
         <v>-1.532843545</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3703,10 +3901,10 @@
         <v>564</v>
       </c>
       <c r="F34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H34" s="1">
         <v>6.4591377039999998</v>
@@ -3714,8 +3912,11 @@
       <c r="I34" s="1">
         <v>-1.8339814800000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3732,10 +3933,10 @@
         <v>564</v>
       </c>
       <c r="F35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H35" s="1">
         <v>6.2886033049999996</v>
@@ -3743,8 +3944,11 @@
       <c r="I35" s="1">
         <v>-1.98713527</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3761,10 +3965,10 @@
         <v>565</v>
       </c>
       <c r="F36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H36" s="1">
         <v>5.9949191280000003</v>
@@ -3772,8 +3976,11 @@
       <c r="I36" s="1">
         <v>-1.360821077</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3790,10 +3997,10 @@
         <v>564</v>
       </c>
       <c r="F37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H37" s="1">
         <v>6.6836604509999997</v>
@@ -3801,8 +4008,11 @@
       <c r="I37" s="1">
         <v>-1.672426446</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3819,10 +4029,10 @@
         <v>564</v>
       </c>
       <c r="F38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H38" s="1">
         <v>7.2563791819999999</v>
@@ -3830,8 +4040,11 @@
       <c r="I38" s="1">
         <v>-1.112501352</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3848,10 +4061,10 @@
         <v>564</v>
       </c>
       <c r="F39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H39" s="1">
         <v>5.9686333280000001</v>
@@ -3859,8 +4072,11 @@
       <c r="I39" s="1">
         <v>-1.606419891</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3877,10 +4093,10 @@
         <v>564</v>
       </c>
       <c r="F40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H40" s="1">
         <v>6.0146078650000003</v>
@@ -3888,8 +4104,11 @@
       <c r="I40" s="1">
         <v>-1.7253121380000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3906,10 +4125,10 @@
         <v>564</v>
       </c>
       <c r="F41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H41" s="1">
         <v>6.1955417930000003</v>
@@ -3917,8 +4136,11 @@
       <c r="I41" s="1">
         <v>-1.8022812539999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3935,10 +4157,10 @@
         <v>564</v>
       </c>
       <c r="F42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H42" s="1">
         <v>7.3318504779999998</v>
@@ -3946,8 +4168,11 @@
       <c r="I42" s="1">
         <v>-1.8796624820000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3964,10 +4189,10 @@
         <v>564</v>
       </c>
       <c r="F43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H43" s="1">
         <v>7.0665275269999999</v>
@@ -3975,8 +4200,11 @@
       <c r="I43" s="1">
         <v>-1.7275198060000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3993,10 +4221,10 @@
         <v>564</v>
       </c>
       <c r="F44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H44" s="1">
         <v>6.6627317479999997</v>
@@ -4004,8 +4232,11 @@
       <c r="I44" s="1">
         <v>-1.524993209</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4022,10 +4253,10 @@
         <v>564</v>
       </c>
       <c r="F45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H45" s="1">
         <v>6.7259703970000002</v>
@@ -4033,8 +4264,11 @@
       <c r="I45" s="1">
         <v>-1.6029518140000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4051,10 +4285,10 @@
         <v>565</v>
       </c>
       <c r="F46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G46" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H46" s="1">
         <v>7.2551335110000004</v>
@@ -4062,8 +4296,11 @@
       <c r="I46" s="1">
         <v>-0.56979984299999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4080,10 +4317,10 @@
         <v>564</v>
       </c>
       <c r="F47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H47" s="1">
         <v>6.7201809270000004</v>
@@ -4091,8 +4328,11 @@
       <c r="I47" s="1">
         <v>-1.5668163209999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4109,10 +4349,10 @@
         <v>564</v>
       </c>
       <c r="F48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H48" s="1">
         <v>6.6732903109999997</v>
@@ -4120,8 +4360,11 @@
       <c r="I48" s="1">
         <v>-1.63713807</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4138,10 +4381,10 @@
         <v>564</v>
       </c>
       <c r="F49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G49" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H49" s="1">
         <v>6.815676388</v>
@@ -4149,8 +4392,11 @@
       <c r="I49" s="1">
         <v>-2.6947828770000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4167,7 +4413,7 @@
         <v>565</v>
       </c>
       <c r="F50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H50" s="1">
         <v>6.606945896</v>
@@ -4175,8 +4421,11 @@
       <c r="I50" s="1">
         <v>-2.5157289760000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4193,10 +4442,10 @@
         <v>564</v>
       </c>
       <c r="F51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H51" s="1">
         <v>7.0445178249999998</v>
@@ -4204,8 +4453,11 @@
       <c r="I51" s="1">
         <v>-2.513790792</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4222,7 +4474,7 @@
         <v>565</v>
       </c>
       <c r="F52" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H52" s="1">
         <v>6.8158744589999998</v>
@@ -4230,8 +4482,11 @@
       <c r="I52" s="1">
         <v>-2.3846097560000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4248,10 +4503,10 @@
         <v>565</v>
       </c>
       <c r="F53" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H53" s="1">
         <v>7.6513059749999996</v>
@@ -4259,8 +4514,11 @@
       <c r="I53" s="1">
         <v>-1.0502300710000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4277,10 +4535,10 @@
         <v>565</v>
       </c>
       <c r="F54" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H54" s="1">
         <v>8.3918414450000007</v>
@@ -4288,8 +4546,11 @@
       <c r="I54" s="1">
         <v>-2.4121391860000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4306,10 +4567,10 @@
         <v>564</v>
       </c>
       <c r="F55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H55" s="1">
         <v>7.5295393260000001</v>
@@ -4317,8 +4578,11 @@
       <c r="I55" s="1">
         <v>-2.5453845670000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4335,10 +4599,10 @@
         <v>564</v>
       </c>
       <c r="F56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H56" s="1">
         <v>7.4437577580000003</v>
@@ -4346,8 +4610,11 @@
       <c r="I56" s="1">
         <v>-2.6797788410000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4364,10 +4631,10 @@
         <v>564</v>
       </c>
       <c r="F57" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H57" s="1">
         <v>7.1634515170000004</v>
@@ -4375,8 +4642,11 @@
       <c r="I57" s="1">
         <v>-2.8624239770000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4393,10 +4663,10 @@
         <v>564</v>
       </c>
       <c r="F58" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G58" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H58" s="1">
         <v>7.2916912309999997</v>
@@ -4404,8 +4674,11 @@
       <c r="I58" s="1">
         <v>-2.7154882159999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4422,10 +4695,10 @@
         <v>565</v>
       </c>
       <c r="F59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G59" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H59" s="1">
         <v>7.0021564029999999</v>
@@ -4433,8 +4706,11 @@
       <c r="I59" s="1">
         <v>-2.9422487319999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4451,10 +4727,10 @@
         <v>564</v>
       </c>
       <c r="F60" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G60" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H60" s="1">
         <v>7.9059001750000002</v>
@@ -4462,8 +4738,11 @@
       <c r="I60" s="1">
         <v>-2.6467643220000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4480,10 +4759,10 @@
         <v>564</v>
       </c>
       <c r="F61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H61" s="1">
         <v>7.647180799</v>
@@ -4491,8 +4770,11 @@
       <c r="I61" s="1">
         <v>-2.7916057369999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4509,10 +4791,10 @@
         <v>565</v>
       </c>
       <c r="F62" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H62" s="1">
         <v>8.4894269819999995</v>
@@ -4520,8 +4802,11 @@
       <c r="I62" s="1">
         <v>-1.5367812409999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4538,10 +4823,10 @@
         <v>565</v>
       </c>
       <c r="F63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G63" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H63" s="1">
         <v>8.029020719</v>
@@ -4549,8 +4834,11 @@
       <c r="I63" s="1">
         <v>-1.72007657</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4567,10 +4855,10 @@
         <v>564</v>
       </c>
       <c r="F64" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H64" s="1">
         <v>7.7034499089999997</v>
@@ -4578,8 +4866,11 @@
       <c r="I64" s="1">
         <v>-1.519296854</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4596,10 +4887,10 @@
         <v>565</v>
       </c>
       <c r="F65" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H65" s="1">
         <v>7.4831372289999996</v>
@@ -4607,8 +4898,11 @@
       <c r="I65" s="1">
         <v>-1.654769065</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4625,10 +4919,10 @@
         <v>565</v>
       </c>
       <c r="F66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G66" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H66" s="1">
         <v>8.0738684070000009</v>
@@ -4636,8 +4930,11 @@
       <c r="I66" s="1">
         <v>-0.88180120799999995</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4654,7 +4951,7 @@
         <v>565</v>
       </c>
       <c r="F67" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H67" s="1">
         <v>8.0293517170000008</v>
@@ -4662,8 +4959,11 @@
       <c r="I67" s="1">
         <v>-1.2744582630000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4680,10 +4980,10 @@
         <v>565</v>
       </c>
       <c r="F68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G68" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H68" s="1">
         <v>7.5493180869999996</v>
@@ -4691,8 +4991,11 @@
       <c r="I68" s="1">
         <v>-0.14570883100000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4709,7 +5012,7 @@
         <v>565</v>
       </c>
       <c r="F69" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H69" s="1">
         <v>7.7772840179999996</v>
@@ -4717,8 +5020,11 @@
       <c r="I69" s="1">
         <v>-0.59578637300000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4735,10 +5041,10 @@
         <v>564</v>
       </c>
       <c r="F70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H70" s="1">
         <v>7.2362240089999998</v>
@@ -4746,8 +5052,11 @@
       <c r="I70" s="1">
         <v>-2.3346082469999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4764,10 +5073,10 @@
         <v>564</v>
       </c>
       <c r="F71" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H71" s="1">
         <v>7.4165089100000001</v>
@@ -4775,8 +5084,11 @@
       <c r="I71" s="1">
         <v>-2.3460682099999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4793,10 +5105,10 @@
         <v>565</v>
       </c>
       <c r="F72" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H72" s="1">
         <v>7.8893325389999998</v>
@@ -4804,8 +5116,11 @@
       <c r="I72" s="1">
         <v>-2.3773039300000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4822,10 +5137,10 @@
         <v>564</v>
       </c>
       <c r="F73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H73" s="1">
         <v>7.2009987960000004</v>
@@ -4833,8 +5148,11 @@
       <c r="I73" s="1">
         <v>-2.1826493669999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4851,10 +5169,10 @@
         <v>565</v>
       </c>
       <c r="F74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G74" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H74" s="1">
         <v>7.1631633900000002</v>
@@ -4862,8 +5180,11 @@
       <c r="I74" s="1">
         <v>-2.018821859</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4880,10 +5201,10 @@
         <v>565</v>
       </c>
       <c r="F75" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H75" s="1">
         <v>7.7319040499999998</v>
@@ -4891,8 +5212,11 @@
       <c r="I75" s="1">
         <v>-1.9472730110000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4909,10 +5233,10 @@
         <v>565</v>
       </c>
       <c r="F76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H76" s="1">
         <v>7.5272922979999999</v>
@@ -4920,8 +5244,11 @@
       <c r="I76" s="1">
         <v>-1.946894288</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4938,10 +5265,10 @@
         <v>564</v>
       </c>
       <c r="F77" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H77" s="1">
         <v>7.7363664979999998</v>
@@ -4949,8 +5276,11 @@
       <c r="I77" s="1">
         <v>-2.1269923529999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4967,10 +5297,10 @@
         <v>565</v>
       </c>
       <c r="F78" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H78" s="1">
         <v>5.2629941789999997</v>
@@ -4978,8 +5308,11 @@
       <c r="I78" s="1">
         <v>-1.2066146820000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4996,10 +5329,10 @@
         <v>565</v>
       </c>
       <c r="F79" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G79" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H79" s="1">
         <v>5.6164827119999998</v>
@@ -5007,8 +5340,11 @@
       <c r="I79" s="1">
         <v>-0.68072959899999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5025,10 +5361,10 @@
         <v>565</v>
       </c>
       <c r="F80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H80" s="1">
         <v>5.6209760580000001</v>
@@ -5036,8 +5372,11 @@
       <c r="I80" s="1">
         <v>-0.813322938</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5054,10 +5393,10 @@
         <v>565</v>
       </c>
       <c r="F81" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G81" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H81" s="1">
         <v>5.4130989170000001</v>
@@ -5065,8 +5404,11 @@
       <c r="I81" s="1">
         <v>-0.99232384299999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5083,10 +5425,10 @@
         <v>565</v>
       </c>
       <c r="F82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G82" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H82" s="1">
         <v>5.6400250060000001</v>
@@ -5094,8 +5436,11 @@
       <c r="I82" s="1">
         <v>-1.018220337</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5112,10 +5457,10 @@
         <v>565</v>
       </c>
       <c r="F83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H83" s="1">
         <v>5.5989400539999998</v>
@@ -5123,8 +5468,11 @@
       <c r="I83" s="1">
         <v>-1.3038129490000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5141,10 +5489,10 @@
         <v>564</v>
       </c>
       <c r="F84" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G84" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H84" s="1">
         <v>5.7835964029999998</v>
@@ -5152,8 +5500,11 @@
       <c r="I84" s="1">
         <v>-1.3608483309999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5170,10 +5521,10 @@
         <v>564</v>
       </c>
       <c r="F85" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G85" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H85" s="1">
         <v>5.4563441089999998</v>
@@ -5181,8 +5532,11 @@
       <c r="I85" s="1">
         <v>-1.2531028179999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5199,10 +5553,10 @@
         <v>564</v>
       </c>
       <c r="F86" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G86" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H86" s="1">
         <v>5.5277761229999998</v>
@@ -5210,8 +5564,11 @@
       <c r="I86" s="1">
         <v>-0.46892255900000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5228,10 +5585,10 @@
         <v>565</v>
       </c>
       <c r="F87" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G87" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H87" s="1">
         <v>5.6476618949999997</v>
@@ -5239,8 +5596,11 @@
       <c r="I87" s="1">
         <v>-0.56512496499999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5257,10 +5617,10 @@
         <v>565</v>
       </c>
       <c r="F88" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G88" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H88" s="1">
         <v>5.217345023</v>
@@ -5268,8 +5628,11 @@
       <c r="I88" s="1">
         <v>-1.341938673</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5286,10 +5649,10 @@
         <v>565</v>
       </c>
       <c r="F89" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G89" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H89" s="1">
         <v>5.144413245</v>
@@ -5297,8 +5660,11 @@
       <c r="I89" s="1">
         <v>-1.291215711</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5315,10 +5681,10 @@
         <v>564</v>
       </c>
       <c r="F90" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G90" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H90" s="1">
         <v>5.3338936400000003</v>
@@ -5326,8 +5692,11 @@
       <c r="I90" s="1">
         <v>-0.69745639699999995</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5344,10 +5713,10 @@
         <v>565</v>
       </c>
       <c r="F91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G91" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H91" s="1">
         <v>5.2516283000000001</v>
@@ -5355,8 +5724,11 @@
       <c r="I91" s="1">
         <v>-0.96817074999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5373,10 +5745,10 @@
         <v>565</v>
       </c>
       <c r="F92" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G92" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H92" s="1">
         <v>5.317763544</v>
@@ -5384,8 +5756,11 @@
       <c r="I92" s="1">
         <v>-0.77245478899999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5402,10 +5777,10 @@
         <v>565</v>
       </c>
       <c r="F93" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G93" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H93" s="1">
         <v>5.4433724100000003</v>
@@ -5413,8 +5788,11 @@
       <c r="I93" s="1">
         <v>-0.65712467799999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5431,10 +5809,10 @@
         <v>565</v>
       </c>
       <c r="F94" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G94" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H94" s="1">
         <v>5.3370327169999996</v>
@@ -5442,8 +5820,11 @@
       <c r="I94" s="1">
         <v>-0.86019010500000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5460,10 +5841,10 @@
         <v>565</v>
       </c>
       <c r="F95" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H95" s="1">
         <v>5.6458219679999999</v>
@@ -5471,8 +5852,11 @@
       <c r="I95" s="1">
         <v>-1.5948303509999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5489,10 +5873,10 @@
         <v>564</v>
       </c>
       <c r="F96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H96" s="1">
         <v>5.1257551489999997</v>
@@ -5500,8 +5884,11 @@
       <c r="I96" s="1">
         <v>-1.4481111529999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5518,10 +5905,10 @@
         <v>565</v>
       </c>
       <c r="F97" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G97" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H97" s="1">
         <v>5.2515008429999996</v>
@@ -5529,8 +5916,11 @@
       <c r="I97" s="1">
         <v>-1.0952082480000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5547,10 +5937,10 @@
         <v>565</v>
       </c>
       <c r="F98" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G98" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H98" s="1">
         <v>5.3683479839999997</v>
@@ -5558,8 +5948,11 @@
       <c r="I98" s="1">
         <v>-1.4366020820000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5576,10 +5969,10 @@
         <v>564</v>
       </c>
       <c r="F99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H99" s="1">
         <v>5.8490614010000002</v>
@@ -5587,8 +5980,11 @@
       <c r="I99" s="1">
         <v>-1.7547031710000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5605,10 +6001,10 @@
         <v>564</v>
       </c>
       <c r="F100" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G100" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H100" s="1">
         <v>6.1269023010000003</v>
@@ -5616,8 +6012,11 @@
       <c r="I100" s="1">
         <v>-2.0292833450000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5634,7 +6033,7 @@
         <v>564</v>
       </c>
       <c r="F101" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H101" s="1">
         <v>6.7377936930000004</v>
@@ -5642,8 +6041,11 @@
       <c r="I101" s="1">
         <v>-0.76908749799999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5660,10 +6062,10 @@
         <v>564</v>
       </c>
       <c r="F102" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G102" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H102" s="1">
         <v>6.4051738690000004</v>
@@ -5671,8 +6073,11 @@
       <c r="I102" s="1">
         <v>-0.96932155099999995</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5689,10 +6094,10 @@
         <v>564</v>
       </c>
       <c r="F103" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G103" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H103" s="1">
         <v>6.1895770990000001</v>
@@ -5700,8 +6105,11 @@
       <c r="I103" s="1">
         <v>-0.412611059</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5718,10 +6126,10 @@
         <v>564</v>
       </c>
       <c r="F104" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G104" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H104" s="1">
         <v>6.1619822429999997</v>
@@ -5729,8 +6137,11 @@
       <c r="I104" s="1">
         <v>-0.54464742600000005</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5747,10 +6158,10 @@
         <v>564</v>
       </c>
       <c r="F105" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G105" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H105" s="1">
         <v>5.8087869440000004</v>
@@ -5758,8 +6169,11 @@
       <c r="I105" s="1">
         <v>-1.0968247980000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5776,10 +6190,10 @@
         <v>565</v>
       </c>
       <c r="F106" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G106" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H106" s="1">
         <v>7.0255848319999998</v>
@@ -5787,8 +6201,11 @@
       <c r="I106" s="1">
         <v>3.4832566000000002E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5805,10 +6222,10 @@
         <v>565</v>
       </c>
       <c r="F107" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G107" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H107" s="1">
         <v>6.8426654239999998</v>
@@ -5816,8 +6233,11 @@
       <c r="I107" s="1">
         <v>-0.26056731900000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5834,10 +6254,10 @@
         <v>564</v>
       </c>
       <c r="F108" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G108" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H108" s="1">
         <v>5.8611991769999996</v>
@@ -5845,8 +6265,11 @@
       <c r="I108" s="1">
         <v>-0.90302592699999995</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5863,10 +6286,10 @@
         <v>564</v>
       </c>
       <c r="F109" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G109" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H109" s="1">
         <v>5.8556110339999998</v>
@@ -5874,8 +6297,11 @@
       <c r="I109" s="1">
         <v>-1.0518999840000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5892,10 +6318,10 @@
         <v>564</v>
       </c>
       <c r="F110" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G110" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H110" s="1">
         <v>5.9396422710000003</v>
@@ -5903,8 +6329,11 @@
       <c r="I110" s="1">
         <v>-0.18132263200000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5921,10 +6350,10 @@
         <v>564</v>
       </c>
       <c r="F111" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H111" s="1">
         <v>5.8449117130000001</v>
@@ -5932,8 +6361,11 @@
       <c r="I111" s="1">
         <v>-0.22960353999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5950,7 +6382,7 @@
         <v>565</v>
       </c>
       <c r="F112" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H112" s="1">
         <v>6.0448152469999998</v>
@@ -5958,8 +6390,11 @@
       <c r="I112" s="1">
         <v>-0.79950605100000005</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5976,10 +6411,10 @@
         <v>564</v>
       </c>
       <c r="F113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H113" s="1">
         <v>5.8818040890000001</v>
@@ -5987,8 +6422,11 @@
       <c r="I113" s="1">
         <v>-0.80481925300000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6005,7 +6443,7 @@
         <v>564</v>
       </c>
       <c r="F114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H114" s="1">
         <v>6.3853297600000003</v>
@@ -6013,8 +6451,11 @@
       <c r="I114" s="1">
         <v>8.0023951999999995E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6031,10 +6472,10 @@
         <v>564</v>
       </c>
       <c r="F115" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G115" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H115" s="1">
         <v>6.3461139849999997</v>
@@ -6042,8 +6483,11 @@
       <c r="I115" s="1">
         <v>-0.60924942100000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6060,10 +6504,10 @@
         <v>564</v>
       </c>
       <c r="F116" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G116" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H116" s="1">
         <v>6.3356851819999997</v>
@@ -6071,8 +6515,11 @@
       <c r="I116" s="1">
         <v>-0.760959626</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6089,10 +6536,10 @@
         <v>564</v>
       </c>
       <c r="F117" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G117" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H117" s="1">
         <v>5.9147922790000003</v>
@@ -6100,8 +6547,11 @@
       <c r="I117" s="1">
         <v>-0.49336829100000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6118,10 +6568,10 @@
         <v>564</v>
       </c>
       <c r="F118" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G118" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H118" s="1">
         <v>6.5333924830000001</v>
@@ -6129,8 +6579,11 @@
       <c r="I118" s="1">
         <v>-0.31206586200000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6147,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="F119" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G119" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H119" s="1">
         <v>6.3542680909999998</v>
@@ -6158,8 +6611,11 @@
       <c r="I119" s="1">
         <v>-0.38749608899999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6176,10 +6632,10 @@
         <v>564</v>
       </c>
       <c r="F120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G120" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H120" s="1">
         <v>6.1982249080000003</v>
@@ -6187,8 +6643,11 @@
       <c r="I120" s="1">
         <v>-0.84013143999999995</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6205,10 +6664,10 @@
         <v>565</v>
       </c>
       <c r="F121" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G121" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H121" s="1">
         <v>6.2426273170000002</v>
@@ -6216,8 +6675,11 @@
       <c r="I121" s="1">
         <v>-3.2350648000000003E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6234,10 +6696,10 @@
         <v>564</v>
       </c>
       <c r="F122" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G122" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H122" s="1">
         <v>5.7944120730000002</v>
@@ -6245,8 +6707,11 @@
       <c r="I122" s="1">
         <v>-0.59243666299999997</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6263,10 +6728,10 @@
         <v>564</v>
       </c>
       <c r="F123" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G123" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H123" s="1">
         <v>6.5973088649999996</v>
@@ -6274,8 +6739,11 @@
       <c r="I123" s="1">
         <v>-0.58821079399999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6292,10 +6760,10 @@
         <v>564</v>
       </c>
       <c r="F124" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G124" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H124" s="1">
         <v>6.1419569770000004</v>
@@ -6303,8 +6771,11 @@
       <c r="I124" s="1">
         <v>-0.29659421000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6321,10 +6792,10 @@
         <v>564</v>
       </c>
       <c r="F125" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G125" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H125" s="1">
         <v>6.0754417460000001</v>
@@ -6332,8 +6803,11 @@
       <c r="I125" s="1">
         <v>-0.26139087999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6350,10 +6824,10 @@
         <v>564</v>
       </c>
       <c r="F126" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G126" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H126" s="1">
         <v>6.516523716</v>
@@ -6361,8 +6835,11 @@
       <c r="I126" s="1">
         <v>-0.77861707400000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6379,10 +6856,10 @@
         <v>564</v>
       </c>
       <c r="F127" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H127" s="1">
         <v>5.7854237199999998</v>
@@ -6390,8 +6867,11 @@
       <c r="I127" s="1">
         <v>-0.31004425299999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6408,10 +6888,10 @@
         <v>564</v>
       </c>
       <c r="F128" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G128" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H128" s="1">
         <v>6.1055165889999996</v>
@@ -6419,8 +6899,11 @@
       <c r="I128" s="1">
         <v>-1.0912230780000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6437,10 +6920,10 @@
         <v>564</v>
       </c>
       <c r="F129" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G129" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H129" s="1">
         <v>6.03373341</v>
@@ -6448,8 +6931,11 @@
       <c r="I129" s="1">
         <v>-0.123745944</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6466,7 +6952,7 @@
         <v>564</v>
       </c>
       <c r="F130" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H130" s="1">
         <v>6.0207465359999999</v>
@@ -6474,8 +6960,11 @@
       <c r="I130" s="1">
         <v>-0.41033905999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6492,10 +6981,10 @@
         <v>565</v>
       </c>
       <c r="F131" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G131" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H131" s="1">
         <v>6.4353677779999998</v>
@@ -6503,8 +6992,11 @@
       <c r="I131" s="1">
         <v>-0.12850946199999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6521,10 +7013,10 @@
         <v>565</v>
       </c>
       <c r="F132" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H132" s="1">
         <v>5.9304874410000004</v>
@@ -6532,8 +7024,11 @@
       <c r="I132" s="1">
         <v>-0.70445110499999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6550,10 +7045,10 @@
         <v>565</v>
       </c>
       <c r="F133" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G133" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H133" s="1">
         <v>6.1972314500000003</v>
@@ -6561,8 +7056,11 @@
       <c r="I133" s="1">
         <v>-0.173311678</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6579,10 +7077,10 @@
         <v>565</v>
       </c>
       <c r="F134" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G134" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H134" s="1">
         <v>5.6005851340000001</v>
@@ -6590,8 +7088,11 @@
       <c r="I134" s="1">
         <v>-0.27651413499999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6608,10 +7109,10 @@
         <v>564</v>
       </c>
       <c r="F135" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G135" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H135" s="1">
         <v>5.6307457569999997</v>
@@ -6619,8 +7120,11 @@
       <c r="I135" s="1">
         <v>-0.27253285900000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6637,10 +7141,10 @@
         <v>565</v>
       </c>
       <c r="F136" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G136" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H136" s="1">
         <v>5.5674200359999997</v>
@@ -6648,8 +7152,11 @@
       <c r="I136" s="1">
         <v>-0.27425726700000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6666,7 +7173,7 @@
         <v>564</v>
       </c>
       <c r="F137" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H137" s="1">
         <v>5.6228904750000002</v>
@@ -6674,8 +7181,11 @@
       <c r="I137" s="1">
         <v>-0.31863824200000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6692,10 +7202,10 @@
         <v>565</v>
       </c>
       <c r="F138" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G138" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H138" s="1">
         <v>5.868325005</v>
@@ -6703,8 +7213,11 @@
       <c r="I138" s="1">
         <v>0.54561752799999996</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6721,7 +7234,7 @@
         <v>565</v>
       </c>
       <c r="F139" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H139" s="1">
         <v>5.7097020430000001</v>
@@ -6729,8 +7242,11 @@
       <c r="I139" s="1">
         <v>-0.12389159900000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6747,10 +7263,10 @@
         <v>565</v>
       </c>
       <c r="F140" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G140" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H140" s="1">
         <v>5.7109921379999999</v>
@@ -6758,8 +7274,11 @@
       <c r="I140" s="1">
         <v>-0.26290640900000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6776,10 +7295,10 @@
         <v>564</v>
       </c>
       <c r="F141" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G141" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H141" s="1">
         <v>5.5804606689999998</v>
@@ -6787,8 +7306,11 @@
       <c r="I141" s="1">
         <v>-0.33122758400000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6805,10 +7327,10 @@
         <v>565</v>
       </c>
       <c r="F142" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G142" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H142" s="1">
         <v>5.7052252220000002</v>
@@ -6816,8 +7338,11 @@
       <c r="I142" s="1">
         <v>-2.7968105E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6834,10 +7359,10 @@
         <v>564</v>
       </c>
       <c r="F143" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G143" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H143" s="1">
         <v>5.6079967499999999</v>
@@ -6845,8 +7370,11 @@
       <c r="I143" s="1">
         <v>-0.18195187800000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6863,7 +7391,7 @@
         <v>565</v>
       </c>
       <c r="F144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H144" s="1">
         <v>5.6316097149999997</v>
@@ -6871,8 +7399,11 @@
       <c r="I144" s="1">
         <v>-0.148157027</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6889,7 +7420,7 @@
         <v>565</v>
       </c>
       <c r="F145" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H145" s="1">
         <v>5.6540763729999997</v>
@@ -6897,8 +7428,11 @@
       <c r="I145" s="1">
         <v>-0.175344838</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6915,10 +7449,10 @@
         <v>564</v>
       </c>
       <c r="F146" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G146" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H146" s="1">
         <v>5.6453107679999999</v>
@@ -6926,8 +7460,11 @@
       <c r="I146" s="1">
         <v>-0.201057128</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6944,10 +7481,10 @@
         <v>565</v>
       </c>
       <c r="F147" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G147" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H147" s="1">
         <v>5.6944660679999997</v>
@@ -6955,8 +7492,11 @@
       <c r="I147" s="1">
         <v>-0.45286502299999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6973,10 +7513,10 @@
         <v>565</v>
       </c>
       <c r="F148" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G148" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H148" s="1">
         <v>5.5661298930000003</v>
@@ -6984,8 +7524,11 @@
       <c r="I148" s="1">
         <v>-0.19130783600000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7002,7 +7545,7 @@
         <v>565</v>
       </c>
       <c r="F149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H149" s="1">
         <v>5.6981233759999999</v>
@@ -7010,8 +7553,11 @@
       <c r="I149" s="1">
         <v>-0.373084731</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7028,10 +7574,10 @@
         <v>564</v>
       </c>
       <c r="F150" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G150" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H150" s="1">
         <v>5.6965026969999997</v>
@@ -7039,8 +7585,11 @@
       <c r="I150" s="1">
         <v>-0.22455233999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7057,10 +7606,10 @@
         <v>565</v>
       </c>
       <c r="F151" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G151" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H151" s="1">
         <v>5.535843807</v>
@@ -7068,8 +7617,11 @@
       <c r="I151" s="1">
         <v>-0.26725407000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7086,10 +7638,10 @@
         <v>565</v>
       </c>
       <c r="F152" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G152" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H152" s="1">
         <v>5.8005197439999998</v>
@@ -7097,8 +7649,11 @@
       <c r="I152" s="1">
         <v>-1.7513384E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7115,10 +7670,10 @@
         <v>565</v>
       </c>
       <c r="F153" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G153" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H153" s="1">
         <v>5.592560958</v>
@@ -7126,8 +7681,11 @@
       <c r="I153" s="1">
         <v>-0.116503942</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7144,10 +7702,10 @@
         <v>565</v>
       </c>
       <c r="F154" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G154" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H154" s="1">
         <v>5.5774501660000002</v>
@@ -7155,8 +7713,11 @@
       <c r="I154" s="1">
         <v>-0.15644818499999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7173,7 +7734,7 @@
         <v>565</v>
       </c>
       <c r="F155" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H155" s="1">
         <v>5.7334209439999997</v>
@@ -7181,8 +7742,11 @@
       <c r="I155" s="1">
         <v>-0.203228774</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7199,10 +7763,10 @@
         <v>565</v>
       </c>
       <c r="F156" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G156" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H156" s="1">
         <v>5.836471006</v>
@@ -7210,8 +7774,11 @@
       <c r="I156" s="1">
         <v>0.19584243900000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7228,10 +7795,10 @@
         <v>565</v>
       </c>
       <c r="F157" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G157" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H157" s="1">
         <v>5.5544310829999999</v>
@@ -7239,8 +7806,11 @@
       <c r="I157" s="1">
         <v>-0.22670031600000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7257,10 +7827,10 @@
         <v>564</v>
       </c>
       <c r="F158" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G158" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H158" s="1">
         <v>5.6233739969999998</v>
@@ -7268,8 +7838,11 @@
       <c r="I158" s="1">
         <v>-0.23120159700000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7286,10 +7859,10 @@
         <v>564</v>
       </c>
       <c r="F159" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G159" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H159" s="1">
         <v>5.65164314</v>
@@ -7297,8 +7870,11 @@
       <c r="I159" s="1">
         <v>-0.23360883099999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7315,10 +7891,10 @@
         <v>564</v>
       </c>
       <c r="F160" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G160" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H160" s="1">
         <v>5.59568668</v>
@@ -7326,8 +7902,11 @@
       <c r="I160" s="1">
         <v>-0.22991109200000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7344,10 +7923,10 @@
         <v>565</v>
       </c>
       <c r="F161" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G161" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H161" s="1">
         <v>5.8895243549999998</v>
@@ -7355,8 +7934,11 @@
       <c r="I161" s="1">
         <v>0.38974146199999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7373,10 +7955,10 @@
         <v>565</v>
       </c>
       <c r="F162" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G162" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H162" s="1">
         <v>6.0079164860000001</v>
@@ -7384,8 +7966,11 @@
       <c r="I162" s="1">
         <v>0.12231713800000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7402,10 +7987,10 @@
         <v>564</v>
       </c>
       <c r="F163" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G163" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H163" s="1">
         <v>5.6513284830000003</v>
@@ -7413,8 +7998,11 @@
       <c r="I163" s="1">
         <v>-3.3810293999999998E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7431,10 +8019,10 @@
         <v>564</v>
       </c>
       <c r="F164" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G164" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H164" s="1">
         <v>5.6735483670000004</v>
@@ -7442,8 +8030,11 @@
       <c r="I164" s="1">
         <v>1.927506E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7460,10 +8051,10 @@
         <v>564</v>
       </c>
       <c r="F165" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G165" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H165" s="1">
         <v>5.638970338</v>
@@ -7471,8 +8062,11 @@
       <c r="I165" s="1">
         <v>-9.7325761999999996E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7489,10 +8083,10 @@
         <v>564</v>
       </c>
       <c r="F166" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G166" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H166" s="1">
         <v>5.6924155650000001</v>
@@ -7500,8 +8094,11 @@
       <c r="I166" s="1">
         <v>-0.293490784</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7518,10 +8115,10 @@
         <v>564</v>
       </c>
       <c r="F167" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G167" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H167" s="1">
         <v>5.5592418510000003</v>
@@ -7529,8 +8126,11 @@
       <c r="I167" s="1">
         <v>-0.36420090399999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7547,10 +8147,10 @@
         <v>564</v>
       </c>
       <c r="F168" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G168" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H168" s="1">
         <v>8.8430947789999994</v>
@@ -7558,8 +8158,11 @@
       <c r="I168" s="1">
         <v>-0.129934356</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7576,7 +8179,7 @@
         <v>565</v>
       </c>
       <c r="F169" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H169" s="1">
         <v>8.6550042979999997</v>
@@ -7584,8 +8187,11 @@
       <c r="I169" s="1">
         <v>-2.2592359750000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7602,10 +8208,10 @@
         <v>564</v>
       </c>
       <c r="F170" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G170" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H170" s="1">
         <v>10.45765916</v>
@@ -7613,8 +8219,11 @@
       <c r="I170" s="1">
         <v>6.3415255000000004E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7631,7 +8240,7 @@
         <v>564</v>
       </c>
       <c r="F171" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H171" s="1">
         <v>10.12765666</v>
@@ -7639,8 +8248,11 @@
       <c r="I171" s="1">
         <v>0.23166088100000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7657,7 +8269,7 @@
         <v>565</v>
       </c>
       <c r="F172" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H172" s="1">
         <v>9.6640141669999995</v>
@@ -7665,8 +8277,11 @@
       <c r="I172" s="1">
         <v>-1.5516139250000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7683,7 +8298,7 @@
         <v>565</v>
       </c>
       <c r="F173" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H173" s="1">
         <v>9.1809059860000009</v>
@@ -7691,8 +8306,11 @@
       <c r="I173" s="1">
         <v>-1.87305166</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7709,10 +8327,10 @@
         <v>565</v>
       </c>
       <c r="F174" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G174" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H174" s="1">
         <v>10.025903939999999</v>
@@ -7720,8 +8338,11 @@
       <c r="I174" s="1">
         <v>-0.164524796</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7738,7 +8359,7 @@
         <v>565</v>
       </c>
       <c r="F175" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H175" s="1">
         <v>9.8750471780000009</v>
@@ -7746,8 +8367,11 @@
       <c r="I175" s="1">
         <v>-0.52727525600000003</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7764,10 +8388,10 @@
         <v>564</v>
       </c>
       <c r="F176" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G176" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H176" s="1">
         <v>8.3877091220000004</v>
@@ -7775,8 +8399,11 @@
       <c r="I176" s="1">
         <v>-2.3552498000000002E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7793,10 +8420,10 @@
         <v>566</v>
       </c>
       <c r="F177" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G177" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H177" s="1">
         <v>9.7568092229999994</v>
@@ -7804,8 +8431,11 @@
       <c r="I177" s="1">
         <v>-1.110349045</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7822,10 +8452,10 @@
         <v>565</v>
       </c>
       <c r="F178" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G178" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H178" s="1">
         <v>9.3892229629999999</v>
@@ -7833,8 +8463,11 @@
       <c r="I178" s="1">
         <v>-0.19911050699999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7851,10 +8484,10 @@
         <v>565</v>
       </c>
       <c r="F179" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G179" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H179" s="1">
         <v>10.45617337</v>
@@ -7862,8 +8495,11 @@
       <c r="I179" s="1">
         <v>-0.42251292400000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7880,7 +8516,7 @@
         <v>565</v>
       </c>
       <c r="F180" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H180" s="1">
         <v>9.5981438200000007</v>
@@ -7888,8 +8524,11 @@
       <c r="I180" s="1">
         <v>-0.68877937899999997</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7906,10 +8545,10 @@
         <v>565</v>
       </c>
       <c r="F181" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G181" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H181" s="1">
         <v>9.6730162249999996</v>
@@ -7917,8 +8556,11 @@
       <c r="I181" s="1">
         <v>0.18086226899999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7935,7 +8577,7 @@
         <v>565</v>
       </c>
       <c r="F182" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H182" s="1">
         <v>9.4881233700000003</v>
@@ -7943,8 +8585,11 @@
       <c r="I182" s="1">
         <v>-0.66064753799999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7961,7 +8606,7 @@
         <v>565</v>
       </c>
       <c r="F183" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H183" s="1">
         <v>8.9422650709999996</v>
@@ -7969,8 +8614,11 @@
       <c r="I183" s="1">
         <v>-0.53689250099999997</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7987,7 +8635,7 @@
         <v>565</v>
       </c>
       <c r="F184" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H184" s="1">
         <v>8.3830055199999993</v>
@@ -7995,8 +8643,11 @@
       <c r="I184" s="1">
         <v>-0.76984839000000005</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8013,7 +8664,7 @@
         <v>565</v>
       </c>
       <c r="F185" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H185" s="1">
         <v>9.8547062430000008</v>
@@ -8021,8 +8672,11 @@
       <c r="I185" s="1">
         <v>-0.84087186199999997</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8039,10 +8693,10 @@
         <v>565</v>
       </c>
       <c r="F186" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G186" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H186" s="1">
         <v>9.4592844550000006</v>
@@ -8050,8 +8704,11 @@
       <c r="I186" s="1">
         <v>-2.3887748119999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8068,10 +8725,10 @@
         <v>565</v>
       </c>
       <c r="F187" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G187" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H187" s="1">
         <v>9.4474621869999993</v>
@@ -8079,8 +8736,11 @@
       <c r="I187" s="1">
         <v>-0.85251885900000002</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8097,10 +8757,10 @@
         <v>567</v>
       </c>
       <c r="F188" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G188" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H188" s="1">
         <v>9.5224973530000003</v>
@@ -8108,8 +8768,11 @@
       <c r="I188" s="1">
         <v>-0.80176793400000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8126,10 +8789,10 @@
         <v>565</v>
       </c>
       <c r="F189" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G189" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H189" s="1">
         <v>9.3678079370000003</v>
@@ -8137,8 +8800,11 @@
       <c r="I189" s="1">
         <v>-0.77578401299999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8155,10 +8821,10 @@
         <v>564</v>
       </c>
       <c r="F190" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G190" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H190" s="1">
         <v>9.1855871039999997</v>
@@ -8166,8 +8832,11 @@
       <c r="I190" s="1">
         <v>0.457122784</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8184,7 +8853,7 @@
         <v>564</v>
       </c>
       <c r="F191" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H191" s="1">
         <v>9.3969453559999998</v>
@@ -8192,8 +8861,11 @@
       <c r="I191" s="1">
         <v>-1.057893049</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8210,7 +8882,7 @@
         <v>564</v>
       </c>
       <c r="F192" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H192" s="1">
         <v>10.32734533</v>
@@ -8218,8 +8890,11 @@
       <c r="I192" s="1">
         <v>-0.85104809100000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8236,10 +8911,10 @@
         <v>565</v>
       </c>
       <c r="F193" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G193" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H193" s="1">
         <v>8.7753894730000006</v>
@@ -8247,8 +8922,11 @@
       <c r="I193" s="1">
         <v>0.123585996</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8265,7 +8943,7 @@
         <v>564</v>
       </c>
       <c r="F194" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H194" s="1">
         <v>10.255255050000001</v>
@@ -8273,8 +8951,11 @@
       <c r="I194" s="1">
         <v>-1.35853928</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8291,7 +8972,7 @@
         <v>565</v>
       </c>
       <c r="F195" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H195" s="1">
         <v>8.9242044150000002</v>
@@ -8299,8 +8980,11 @@
       <c r="I195" s="1">
         <v>-1.3234897839999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8317,10 +9001,10 @@
         <v>564</v>
       </c>
       <c r="F196" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G196" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H196" s="1">
         <v>9.3935733619999997</v>
@@ -8328,8 +9012,11 @@
       <c r="I196" s="1">
         <v>9.9586667000000004E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8346,10 +9033,10 @@
         <v>565</v>
       </c>
       <c r="F197" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G197" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H197" s="1">
         <v>10.49676955</v>
@@ -8357,8 +9044,11 @@
       <c r="I197" s="1">
         <v>-0.144956219</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8375,10 +9065,10 @@
         <v>564</v>
       </c>
       <c r="F198" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G198" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H198" s="1">
         <v>9.1648485500000003</v>
@@ -8386,8 +9076,11 @@
       <c r="I198" s="1">
         <v>0.31629290100000002</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8404,7 +9097,7 @@
         <v>565</v>
       </c>
       <c r="F199" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H199" s="1">
         <v>10.956927759999999</v>
@@ -8412,8 +9105,11 @@
       <c r="I199" s="1">
         <v>-0.308844179</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8430,10 +9126,10 @@
         <v>565</v>
       </c>
       <c r="F200" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G200" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H200" s="1">
         <v>11.06294578</v>
@@ -8441,8 +9137,11 @@
       <c r="I200" s="1">
         <v>-5.2912669000000002E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8459,10 +9158,10 @@
         <v>565</v>
       </c>
       <c r="F201" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G201" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H201" s="1">
         <v>10.7380149</v>
@@ -8470,8 +9169,11 @@
       <c r="I201" s="1">
         <v>-0.93833964800000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8488,10 +9190,10 @@
         <v>565</v>
       </c>
       <c r="F202" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G202" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H202" s="1">
         <v>10.773028829999999</v>
@@ -8499,8 +9201,11 @@
       <c r="I202" s="1">
         <v>-0.80595275600000005</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8517,10 +9222,10 @@
         <v>565</v>
       </c>
       <c r="F203" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G203" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H203" s="1">
         <v>10.913814029999999</v>
@@ -8528,8 +9233,11 @@
       <c r="I203" s="1">
         <v>-0.79312096899999995</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8546,10 +9254,10 @@
         <v>565</v>
       </c>
       <c r="F204" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G204" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H204" s="1">
         <v>10.678561589999999</v>
@@ -8557,8 +9265,11 @@
       <c r="I204" s="1">
         <v>-1.333579759</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8575,7 +9286,7 @@
         <v>568</v>
       </c>
       <c r="F205" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H205" s="1">
         <v>10.466330040000001</v>
@@ -8583,8 +9294,11 @@
       <c r="I205" s="1">
         <v>-1.3033289770000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8601,7 +9315,7 @@
         <v>565</v>
       </c>
       <c r="F206" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H206" s="1">
         <v>10.89764072</v>
@@ -8609,8 +9323,11 @@
       <c r="I206" s="1">
         <v>-1.3073580730000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8627,10 +9344,10 @@
         <v>565</v>
       </c>
       <c r="F207" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G207" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H207" s="1">
         <v>10.767519139999999</v>
@@ -8638,8 +9355,11 @@
       <c r="I207" s="1">
         <v>-0.23719945200000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8656,7 +9376,7 @@
         <v>564</v>
       </c>
       <c r="F208" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H208" s="1">
         <v>10.79872458</v>
@@ -8664,8 +9384,11 @@
       <c r="I208" s="1">
         <v>-0.65592236100000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8682,10 +9405,10 @@
         <v>565</v>
       </c>
       <c r="F209" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G209" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H209" s="1">
         <v>10.769002240000001</v>
@@ -8693,8 +9416,11 @@
       <c r="I209" s="1">
         <v>-1.0450007750000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8711,7 +9437,7 @@
         <v>565</v>
       </c>
       <c r="F210" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H210" s="1">
         <v>11.06775401</v>
@@ -8719,8 +9445,11 @@
       <c r="I210" s="1">
         <v>-0.20183314599999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8737,7 +9466,7 @@
         <v>565</v>
       </c>
       <c r="F211" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H211" s="1">
         <v>10.63608588</v>
@@ -8745,8 +9474,11 @@
       <c r="I211" s="1">
         <v>-0.72248360599999994</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8763,10 +9495,10 @@
         <v>565</v>
       </c>
       <c r="F212" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G212" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H212" s="1">
         <v>10.91404429</v>
@@ -8774,8 +9506,11 @@
       <c r="I212" s="1">
         <v>-8.0961974000000006E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8792,10 +9527,10 @@
         <v>565</v>
       </c>
       <c r="F213" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G213" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H213" s="1">
         <v>10.82611694</v>
@@ -8803,8 +9538,11 @@
       <c r="I213" s="1">
         <v>-0.47471367399999997</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8821,7 +9559,7 @@
         <v>565</v>
       </c>
       <c r="F214" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H214" s="1">
         <v>10.357191609999999</v>
@@ -8829,8 +9567,11 @@
       <c r="I214" s="1">
         <v>-2.3513136910000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8847,10 +9588,10 @@
         <v>567</v>
       </c>
       <c r="F215" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G215" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H215" s="1">
         <v>10.59957586</v>
@@ -8858,8 +9599,11 @@
       <c r="I215" s="1">
         <v>-2.5896846039999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8876,7 +9620,7 @@
         <v>565</v>
       </c>
       <c r="F216" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H216" s="1">
         <v>10.869714979999999</v>
@@ -8884,8 +9628,11 @@
       <c r="I216" s="1">
         <v>-2.6378903399999998</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8902,10 +9649,10 @@
         <v>565</v>
       </c>
       <c r="F217" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G217" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H217" s="1">
         <v>10.65224267</v>
@@ -8913,8 +9660,11 @@
       <c r="I217" s="1">
         <v>-2.8177582380000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8931,10 +9681,10 @@
         <v>565</v>
       </c>
       <c r="F218" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G218" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H218" s="1">
         <v>10.28621425</v>
@@ -8942,8 +9692,11 @@
       <c r="I218" s="1">
         <v>-2.6693009440000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8960,10 +9713,10 @@
         <v>565</v>
       </c>
       <c r="F219" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G219" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H219" s="1">
         <v>10.859508480000001</v>
@@ -8971,8 +9724,11 @@
       <c r="I219" s="1">
         <v>-2.7893354650000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8989,7 +9745,7 @@
         <v>565</v>
       </c>
       <c r="F220" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H220" s="1">
         <v>10.63622146</v>
@@ -8997,8 +9753,11 @@
       <c r="I220" s="1">
         <v>-1.75302673</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9015,7 +9774,7 @@
         <v>565</v>
       </c>
       <c r="F221" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H221" s="1">
         <v>10.72090556</v>
@@ -9023,8 +9782,11 @@
       <c r="I221" s="1">
         <v>-2.215576649</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9041,7 +9803,7 @@
         <v>565</v>
       </c>
       <c r="F222" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H222" s="1">
         <v>9.9740532539999993</v>
@@ -9049,8 +9811,11 @@
       <c r="I222" s="1">
         <v>-2.2972221859999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9067,7 +9832,7 @@
         <v>565</v>
       </c>
       <c r="F223" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H223" s="1">
         <v>9.9907675430000005</v>
@@ -9075,8 +9840,11 @@
       <c r="I223" s="1">
         <v>-1.8856364720000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9093,7 +9861,7 @@
         <v>565</v>
       </c>
       <c r="F224" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H224" s="1">
         <v>9.9294370969999992</v>
@@ -9101,8 +9869,11 @@
       <c r="I224" s="1">
         <v>-2.665728095</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9119,7 +9890,7 @@
         <v>565</v>
       </c>
       <c r="F225" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H225" s="1">
         <v>6.3392974239999997</v>
@@ -9127,8 +9898,11 @@
       <c r="I225" s="1">
         <v>0.64895188699999995</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9145,10 +9919,10 @@
         <v>565</v>
       </c>
       <c r="F226" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G226" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H226" s="1">
         <v>6.8757020520000003</v>
@@ -9156,8 +9930,11 @@
       <c r="I226" s="1">
         <v>0.410205284</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9174,10 +9951,10 @@
         <v>565</v>
       </c>
       <c r="F227" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G227" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H227" s="1">
         <v>6.4149995479999999</v>
@@ -9185,8 +9962,11 @@
       <c r="I227" s="1">
         <v>0.57788851299999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9203,7 +9983,7 @@
         <v>567</v>
       </c>
       <c r="F228" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H228" s="1">
         <v>7.7424528810000002</v>
@@ -9211,8 +9991,11 @@
       <c r="I228" s="1">
         <v>0.49914145300000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9229,10 +10012,10 @@
         <v>565</v>
       </c>
       <c r="F229" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G229" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H229" s="1">
         <v>6.2644802500000001</v>
@@ -9240,8 +10023,11 @@
       <c r="I229" s="1">
         <v>0.82545494200000002</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9258,10 +10044,10 @@
         <v>565</v>
       </c>
       <c r="F230" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G230" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H230" s="1">
         <v>6.0550618849999998</v>
@@ -9269,8 +10055,11 @@
       <c r="I230" s="1">
         <v>0.79560824399999996</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9287,10 +10076,10 @@
         <v>565</v>
       </c>
       <c r="F231" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G231" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H231" s="1">
         <v>5.8311927150000002</v>
@@ -9298,8 +10087,11 @@
       <c r="I231" s="1">
         <v>0.81472640600000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9316,7 +10108,7 @@
         <v>565</v>
       </c>
       <c r="F232" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H232" s="1">
         <v>7.3126087220000002</v>
@@ -9324,8 +10116,11 @@
       <c r="I232" s="1">
         <v>0.33775880800000002</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9342,7 +10137,7 @@
         <v>565</v>
       </c>
       <c r="F233" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H233" s="1">
         <v>7.3688260269999999</v>
@@ -9350,8 +10145,11 @@
       <c r="I233" s="1">
         <v>0.51882386899999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9368,10 +10166,10 @@
         <v>565</v>
       </c>
       <c r="F234" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G234" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H234" s="1">
         <v>6.1480747640000004</v>
@@ -9379,8 +10177,11 @@
       <c r="I234" s="1">
         <v>0.58807415600000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9397,7 +10198,7 @@
         <v>565</v>
       </c>
       <c r="F235" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H235" s="1">
         <v>6.5938698520000001</v>
@@ -9405,8 +10206,11 @@
       <c r="I235" s="1">
         <v>0.55627244899999995</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9423,7 +10227,7 @@
         <v>565</v>
       </c>
       <c r="F236" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H236" s="1">
         <v>6.5601820399999999</v>
@@ -9431,8 +10235,11 @@
       <c r="I236" s="1">
         <v>0.38990396799999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9449,10 +10256,10 @@
         <v>565</v>
       </c>
       <c r="F237" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G237" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H237" s="1">
         <v>7.1420914719999997</v>
@@ -9460,8 +10267,11 @@
       <c r="I237" s="1">
         <v>0.516766112</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9478,10 +10288,10 @@
         <v>565</v>
       </c>
       <c r="F238" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G238" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H238" s="1">
         <v>5.9357168260000002</v>
@@ -9489,8 +10299,11 @@
       <c r="I238" s="1">
         <v>0.91006570499999995</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9507,10 +10320,10 @@
         <v>565</v>
       </c>
       <c r="F239" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G239" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H239" s="1">
         <v>6.1538463590000001</v>
@@ -9518,8 +10331,11 @@
       <c r="I239" s="1">
         <v>0.97062774299999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9536,7 +10352,7 @@
         <v>565</v>
       </c>
       <c r="F240" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H240" s="1">
         <v>6.0825656769999998</v>
@@ -9544,8 +10360,11 @@
       <c r="I240" s="1">
         <v>1.073047946</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9562,10 +10381,10 @@
         <v>565</v>
       </c>
       <c r="F241" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G241" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H241" s="1">
         <v>6.9839020679999999</v>
@@ -9573,8 +10392,11 @@
       <c r="I241" s="1">
         <v>0.28201758999999998</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9591,10 +10413,10 @@
         <v>565</v>
       </c>
       <c r="F242" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G242" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H242" s="1">
         <v>7.738166391</v>
@@ -9602,8 +10424,11 @@
       <c r="I242" s="1">
         <v>0.21686601599999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9620,10 +10445,10 @@
         <v>565</v>
       </c>
       <c r="F243" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G243" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H243" s="1">
         <v>7.9016866950000004</v>
@@ -9631,8 +10456,11 @@
       <c r="I243" s="1">
         <v>-7.1687829999999998E-3</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9649,10 +10477,10 @@
         <v>565</v>
       </c>
       <c r="F244" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G244" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H244" s="1">
         <v>8.1583243729999992</v>
@@ -9660,8 +10488,11 @@
       <c r="I244" s="1">
         <v>-7.8652650000000005E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9678,7 +10509,7 @@
         <v>565</v>
       </c>
       <c r="F245" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H245" s="1">
         <v>8.5095352050000006</v>
@@ -9686,8 +10517,11 @@
       <c r="I245" s="1">
         <v>0.36243753899999998</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9704,10 +10538,10 @@
         <v>565</v>
       </c>
       <c r="F246" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G246" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H246" s="1">
         <v>8.1568179749999992</v>
@@ -9715,8 +10549,11 @@
       <c r="I246" s="1">
         <v>0.414404891</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9733,10 +10570,10 @@
         <v>565</v>
       </c>
       <c r="F247" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G247" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H247" s="1">
         <v>6.8171290730000003</v>
@@ -9744,8 +10581,11 @@
       <c r="I247" s="1">
         <v>0.24816138700000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9762,10 +10602,10 @@
         <v>565</v>
       </c>
       <c r="F248" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G248" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H248" s="1">
         <v>6.1676747389999997</v>
@@ -9773,8 +10613,11 @@
       <c r="I248" s="1">
         <v>0.31251488300000002</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9791,7 +10634,7 @@
         <v>565</v>
       </c>
       <c r="F249" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H249" s="1">
         <v>6.5646326789999998</v>
@@ -9799,8 +10642,11 @@
       <c r="I249" s="1">
         <v>0.214035479</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9817,10 +10663,10 @@
         <v>565</v>
       </c>
       <c r="F250" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G250" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H250" s="1">
         <v>5.9690189890000003</v>
@@ -9828,8 +10674,11 @@
       <c r="I250" s="1">
         <v>0.66236819300000005</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9846,10 +10695,10 @@
         <v>565</v>
       </c>
       <c r="F251" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G251" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H251" s="1">
         <v>4.8495225959999999</v>
@@ -9857,8 +10706,11 @@
       <c r="I251" s="1">
         <v>-2.0097870979999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9875,10 +10727,10 @@
         <v>565</v>
       </c>
       <c r="F252" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G252" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H252" s="1">
         <v>5.8409879699999996</v>
@@ -9886,8 +10738,11 @@
       <c r="I252" s="1">
         <v>-2.2503450470000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9904,10 +10759,10 @@
         <v>565</v>
       </c>
       <c r="F253" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G253" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H253" s="1">
         <v>5.7975526009999996</v>
@@ -9915,8 +10770,11 @@
       <c r="I253" s="1">
         <v>-2.0095825980000002</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9933,7 +10791,7 @@
         <v>565</v>
       </c>
       <c r="F254" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H254" s="1">
         <v>5.6054080849999997</v>
@@ -9941,8 +10799,11 @@
       <c r="I254" s="1">
         <v>-2.4365780880000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9959,10 +10820,10 @@
         <v>565</v>
       </c>
       <c r="F255" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G255" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H255" s="1">
         <v>5.7242904159999997</v>
@@ -9970,8 +10831,11 @@
       <c r="I255" s="1">
         <v>-2.7053256819999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9988,10 +10852,10 @@
         <v>565</v>
       </c>
       <c r="F256" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G256" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H256" s="1">
         <v>6.7606671650000001</v>
@@ -9999,8 +10863,11 @@
       <c r="I256" s="1">
         <v>-2.968720668</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10017,10 +10884,10 @@
         <v>565</v>
       </c>
       <c r="F257" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G257" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H257" s="1">
         <v>6.7043529059999996</v>
@@ -10028,8 +10895,11 @@
       <c r="I257" s="1">
         <v>-3.1452477399999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10046,10 +10916,10 @@
         <v>564</v>
       </c>
       <c r="F258" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G258" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H258" s="1">
         <v>6.2846207659999997</v>
@@ -10057,8 +10927,11 @@
       <c r="I258" s="1">
         <v>-2.2621082499999998</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10075,10 +10948,10 @@
         <v>565</v>
       </c>
       <c r="F259" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G259" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H259" s="1">
         <v>6.2493846790000003</v>
@@ -10086,8 +10959,11 @@
       <c r="I259" s="1">
         <v>-2.9182505829999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10104,7 +10980,7 @@
         <v>564</v>
       </c>
       <c r="F260" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H260" s="1">
         <v>5.0721042980000002</v>
@@ -10112,8 +10988,11 @@
       <c r="I260" s="1">
         <v>-1.6429187919999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10130,10 +11009,10 @@
         <v>565</v>
       </c>
       <c r="F261" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G261" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H261" s="1">
         <v>5.1610161669999997</v>
@@ -10141,8 +11020,11 @@
       <c r="I261" s="1">
         <v>-2.4003937510000002</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10159,10 +11041,10 @@
         <v>564</v>
       </c>
       <c r="F262" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G262" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H262" s="1">
         <v>5.0249483819999998</v>
@@ -10170,8 +11052,11 @@
       <c r="I262" s="1">
         <v>-1.626854448</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10188,7 +11073,7 @@
         <v>565</v>
       </c>
       <c r="F263" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H263" s="1">
         <v>5.1071192459999999</v>
@@ -10196,8 +11081,11 @@
       <c r="I263" s="1">
         <v>-2.2038625129999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10214,10 +11102,10 @@
         <v>565</v>
       </c>
       <c r="F264" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G264" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H264" s="1">
         <v>5.1726457720000001</v>
@@ -10225,8 +11113,11 @@
       <c r="I264" s="1">
         <v>-2.6682654389999998</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10243,10 +11134,10 @@
         <v>565</v>
       </c>
       <c r="F265" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G265" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H265" s="1">
         <v>6.4607410400000003</v>
@@ -10254,8 +11145,11 @@
       <c r="I265" s="1">
         <v>-2.9298389739999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10272,10 +11166,10 @@
         <v>564</v>
       </c>
       <c r="F266" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G266" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H266" s="1">
         <v>5.0239250650000002</v>
@@ -10283,8 +11177,11 @@
       <c r="I266" s="1">
         <v>-1.7170293459999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10301,10 +11198,10 @@
         <v>564</v>
       </c>
       <c r="F267" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G267" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H267" s="1">
         <v>5.0631997870000003</v>
@@ -10312,8 +11209,11 @@
       <c r="I267" s="1">
         <v>-1.8181029909999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10330,10 +11230,10 @@
         <v>565</v>
       </c>
       <c r="F268" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G268" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H268" s="1">
         <v>5.4643774299999999</v>
@@ -10341,8 +11241,11 @@
       <c r="I268" s="1">
         <v>-2.028886821</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10359,10 +11262,10 @@
         <v>565</v>
       </c>
       <c r="F269" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G269" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H269" s="1">
         <v>6.2271818669999996</v>
@@ -10370,8 +11273,11 @@
       <c r="I269" s="1">
         <v>-2.544397902</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10388,10 +11294,10 @@
         <v>565</v>
       </c>
       <c r="F270" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G270" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H270" s="1">
         <v>6.0636979789999996</v>
@@ -10399,8 +11305,11 @@
       <c r="I270" s="1">
         <v>-2.7970100659999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10417,10 +11326,10 @@
         <v>564</v>
       </c>
       <c r="F271" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G271" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H271" s="1">
         <v>4.9829747590000002</v>
@@ -10428,8 +11337,11 @@
       <c r="I271" s="1">
         <v>-1.69567383</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10446,10 +11358,10 @@
         <v>565</v>
       </c>
       <c r="F272" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G272" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H272" s="1">
         <v>5.1411820820000003</v>
@@ -10457,8 +11369,11 @@
       <c r="I272" s="1">
         <v>-1.561378653</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10475,10 +11390,10 @@
         <v>565</v>
       </c>
       <c r="F273" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G273" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H273" s="1">
         <v>5.9510891890000002</v>
@@ -10486,8 +11401,11 @@
       <c r="I273" s="1">
         <v>-2.9779563109999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10504,10 +11422,10 @@
         <v>564</v>
       </c>
       <c r="F274" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G274" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H274" s="1">
         <v>4.9405600459999999</v>
@@ -10515,8 +11433,11 @@
       <c r="I274" s="1">
         <v>-1.7666886449999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10533,10 +11454,10 @@
         <v>564</v>
       </c>
       <c r="F275" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G275" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H275" s="1">
         <v>5.1824730839999997</v>
@@ -10544,8 +11465,11 @@
       <c r="I275" s="1">
         <v>-1.9475082269999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10562,10 +11486,10 @@
         <v>565</v>
       </c>
       <c r="F276" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G276" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H276" s="1">
         <v>5.3849997759999999</v>
@@ -10573,8 +11497,12 @@
       <c r="I276" s="1">
         <v>-1.6627919609999999</v>
       </c>
+      <c r="J276" t="s">
+        <v>570</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>